--- a/estadisticas_train.xlsx
+++ b/estadisticas_train.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.5821854912764</v>
+        <v>1.584634220997857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4932244580286329</v>
+        <v>0.4928101337500712</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.865319865319865</v>
+        <v>1.87174778083869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6978262328453736</v>
+        <v>0.6991092700580105</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.561371288644016</v>
+        <v>1.558004285277013</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5215102841923935</v>
+        <v>0.5197403751226711</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05749811216503022</v>
+        <v>-0.05010532181158277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9704374681494689</v>
+        <v>0.9864709090912992</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.008070581369124797</v>
+        <v>0.0004933633012209761</v>
       </c>
       <c r="C6" t="n">
-        <v>1.012224999045038</v>
+        <v>1.002096010003667</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1158994332729113</v>
+        <v>0.1198361658156854</v>
       </c>
       <c r="C7" t="n">
-        <v>1.089776934205035</v>
+        <v>1.102419974438559</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1059509634327497</v>
+        <v>0.1052606236552141</v>
       </c>
       <c r="C8" t="n">
-        <v>1.065957247209816</v>
+        <v>1.071718070013314</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09834161328734023</v>
+        <v>0.1017350512847361</v>
       </c>
       <c r="C9" t="n">
-        <v>1.073251211354324</v>
+        <v>1.075757909832331</v>
       </c>
     </row>
     <row r="10">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09014355695856857</v>
+        <v>0.08684172936832714</v>
       </c>
       <c r="C10" t="n">
-        <v>1.073637602788196</v>
+        <v>1.074907125284217</v>
       </c>
     </row>
     <row r="11">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08663603239146669</v>
+        <v>0.0880442200407764</v>
       </c>
       <c r="C11" t="n">
-        <v>1.081438061590697</v>
+        <v>1.087825216376378</v>
       </c>
     </row>
     <row r="12">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09159808316572828</v>
+        <v>0.08461545345615097</v>
       </c>
       <c r="C12" t="n">
-        <v>1.085813542175512</v>
+        <v>1.081188463484708</v>
       </c>
     </row>
     <row r="13">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00284588013309932</v>
+        <v>-0.005038255962606705</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991358436154486</v>
+        <v>1.011036413103522</v>
       </c>
     </row>
     <row r="14">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.002395307335791515</v>
+        <v>-0.001306316563330006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9975708809737327</v>
+        <v>1.015107260608821</v>
       </c>
     </row>
     <row r="15">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.003778479703512706</v>
+        <v>0.0004381501270345051</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9925306488089082</v>
+        <v>1.012559429395139</v>
       </c>
     </row>
     <row r="16">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001327003970442152</v>
+        <v>0.002880668346226683</v>
       </c>
       <c r="C16" t="n">
-        <v>1.000719493046092</v>
+        <v>1.016710562028979</v>
       </c>
     </row>
     <row r="17">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006057524754419388</v>
+        <v>0.007526799450187273</v>
       </c>
       <c r="C17" t="n">
-        <v>1.007324081131533</v>
+        <v>1.022339311065776</v>
       </c>
     </row>
     <row r="18">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005765229087136991</v>
+        <v>0.00553043035841468</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0039093689155</v>
+        <v>1.012397586398496</v>
       </c>
     </row>
     <row r="19">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02918476734921333</v>
+        <v>-0.02474284831161557</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8736742885745649</v>
+        <v>0.857696273277178</v>
       </c>
     </row>
     <row r="20">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02899422251320059</v>
+        <v>-0.02266315597422714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7111633675673996</v>
+        <v>0.7706663797453337</v>
       </c>
     </row>
     <row r="21">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01816795380120248</v>
+        <v>-0.01553279446862406</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8564220647832048</v>
+        <v>0.9881594047448456</v>
       </c>
     </row>
     <row r="22">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.014411757386427</v>
+        <v>-0.00843204969534769</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9202123859827276</v>
+        <v>0.9539101119810818</v>
       </c>
     </row>
     <row r="23">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01704937323511355</v>
+        <v>-0.01636067463734255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9837846252579732</v>
+        <v>1.001007357332677</v>
       </c>
     </row>
     <row r="24">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004321353242485214</v>
+        <v>-0.01026301770322105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.053369427791083</v>
+        <v>0.9853755010905422</v>
       </c>
     </row>
   </sheetData>
